--- a/Files/Excel/Volvo.xlsx
+++ b/Files/Excel/Volvo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8158E-D83E-43BC-8F31-DF80B79946BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277FE78-B102-4858-815F-81DD9B34A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,69 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Volvo 200</t>
-  </si>
-  <si>
-    <t>Volvo 440</t>
-  </si>
-  <si>
-    <t>Volvo 460</t>
-  </si>
-  <si>
-    <t>Volvo 700</t>
-  </si>
-  <si>
-    <t>Volvo 850</t>
-  </si>
-  <si>
-    <t>Volvo 900</t>
-  </si>
-  <si>
-    <t>Volvo Amazon</t>
-  </si>
-  <si>
-    <t>Volvo C30</t>
-  </si>
-  <si>
-    <t>Volvo Duett</t>
-  </si>
-  <si>
-    <t>Volvo ECC</t>
-  </si>
-  <si>
-    <t>Volvo PV 36 Carioca</t>
-  </si>
-  <si>
-    <t>Volvo PV444/544</t>
-  </si>
-  <si>
-    <t>Volvo S60</t>
-  </si>
-  <si>
-    <t>Volvo S70</t>
-  </si>
-  <si>
-    <t>Volvo V40</t>
-  </si>
-  <si>
-    <t>Volvo V70</t>
-  </si>
-  <si>
-    <t>Volvo XC40</t>
-  </si>
-  <si>
-    <t>Volvo XC60</t>
-  </si>
-  <si>
-    <t>Volvo XC90</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Duett</t>
+  </si>
+  <si>
+    <t>ECC</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>PV Carioca</t>
   </si>
 </sst>
 </file>
@@ -445,175 +421,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A20" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>460</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>850</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>900</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
